--- a/scripts/1 scripts - data cleaning and structuring/jol_left2_change_rightonly.xlsx
+++ b/scripts/1 scripts - data cleaning and structuring/jol_left2_change_rightonly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,9 +516,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="b">
-        <v>1</v>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -564,9 +562,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="b">
-        <v>1</v>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -608,9 +604,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="b">
-        <v>1</v>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -656,9 +650,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="b">
-        <v>1</v>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -704,9 +696,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="b">
-        <v>1</v>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -752,9 +742,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="b">
-        <v>1</v>
-      </c>
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -800,9 +788,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="b">
-        <v>1</v>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -848,9 +834,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="b">
-        <v>1</v>
-      </c>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -896,9 +880,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="b">
-        <v>1</v>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -944,9 +926,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="b">
-        <v>1</v>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -992,9 +972,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="b">
-        <v>1</v>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1040,9 +1018,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="b">
-        <v>1</v>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1088,9 +1064,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="b">
-        <v>1</v>
-      </c>
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1136,9 +1110,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="b">
-        <v>1</v>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1184,9 +1156,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="b">
-        <v>1</v>
-      </c>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1232,9 +1202,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="b">
-        <v>1</v>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1280,9 +1248,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="b">
-        <v>1</v>
-      </c>
+      <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1328,9 +1294,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="b">
-        <v>1</v>
-      </c>
+      <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1376,9 +1340,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="b">
-        <v>1</v>
-      </c>
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1424,9 +1386,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="b">
-        <v>1</v>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1472,9 +1432,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="b">
-        <v>1</v>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1520,9 +1478,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="b">
-        <v>1</v>
-      </c>
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1568,9 +1524,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="b">
-        <v>1</v>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1616,9 +1570,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="b">
-        <v>1</v>
-      </c>
+      <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1664,9 +1616,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="b">
-        <v>1</v>
-      </c>
+      <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1712,9 +1662,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="b">
-        <v>1</v>
-      </c>
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1760,9 +1708,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="b">
-        <v>1</v>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1808,9 +1754,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="b">
-        <v>1</v>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1856,9 +1800,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="b">
-        <v>1</v>
-      </c>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1900,9 +1842,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="b">
-        <v>1</v>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1948,9 +1888,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="b">
-        <v>1</v>
-      </c>
+      <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1996,9 +1934,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="b">
-        <v>1</v>
-      </c>
+      <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -2044,9 +1980,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="b">
-        <v>1</v>
-      </c>
+      <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -2092,9 +2026,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="b">
-        <v>1</v>
-      </c>
+      <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -2140,9 +2072,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="b">
-        <v>1</v>
-      </c>
+      <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -2184,9 +2114,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="b">
-        <v>1</v>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -2232,9 +2160,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="b">
-        <v>1</v>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -2280,9 +2206,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="b">
-        <v>1</v>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
@@ -2328,9 +2252,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="b">
-        <v>1</v>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -2376,9 +2298,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="b">
-        <v>1</v>
-      </c>
+      <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
@@ -2419,46 +2339,6 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="b">
-        <v>1</v>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>호위사령부</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>제91수도방어군단</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>총참모부</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>호위사령부_제91수도방어군단</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
